--- a/Experimental Data/Data Graphs.xlsx
+++ b/Experimental Data/Data Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsolow\Desktop\CS446\CS446\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451B772A-245E-4F01-88E8-A51FE4F2C5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F0483-FE91-48D3-9980-8BB8FD6971FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
   </bookViews>
@@ -784,7 +784,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time Taken with 5000 Walkers</a:t>
+              <a:t>Time Taken with 5000 Steps</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1427,7 +1427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time Taken with 10000 Walkers</a:t>
+              <a:t>Time Taken with 10000 Steps</a:t>
             </a:r>
           </a:p>
         </c:rich>

--- a/Experimental Data/Data Graphs.xlsx
+++ b/Experimental Data/Data Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsolow\Desktop\CS446\CS446\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F0483-FE91-48D3-9980-8BB8FD6971FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB9091-0016-4DC9-A4B9-AA9EB249F469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t xml:space="preserve">Walkers: </t>
   </si>
@@ -53,11 +53,68 @@
   <si>
     <t xml:space="preserve">Improvements </t>
   </si>
+  <si>
+    <t>Dt 10</t>
+  </si>
+  <si>
+    <t>Sim 10</t>
+  </si>
+  <si>
+    <t>Sim 20</t>
+  </si>
+  <si>
+    <t>Dt 5</t>
+  </si>
+  <si>
+    <t>Dt 1</t>
+  </si>
+  <si>
+    <t>Dt .5</t>
+  </si>
+  <si>
+    <t>Dt .1</t>
+  </si>
+  <si>
+    <t>Dt:</t>
+  </si>
+  <si>
+    <t>Avg Ref</t>
+  </si>
+  <si>
+    <t>Sims 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dt: </t>
+  </si>
+  <si>
+    <t>Sims 20</t>
+  </si>
+  <si>
+    <t>Standard Dev</t>
+  </si>
+  <si>
+    <t>dt .1</t>
+  </si>
+  <si>
+    <t>dt .5</t>
+  </si>
+  <si>
+    <t>dt 1</t>
+  </si>
+  <si>
+    <t>dt 5</t>
+  </si>
+  <si>
+    <t>dt 10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +726,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -4989,16 +5047,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5025,16 +5083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5063,16 +5121,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5101,16 +5159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5437,15 +5495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17403C00-ED43-4CA2-8BB5-D37A334092CE}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="20" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -5453,7 +5514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -5485,7 +5546,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5493,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -5525,7 +5586,7 @@
         <v>534.78</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -5557,7 +5618,7 @@
         <v>1393.21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -5589,12 +5650,12 @@
         <v>2644.43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -5611,12 +5672,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -5633,7 +5694,7 @@
         <v>38.03</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -5650,7 +5711,7 @@
         <v>38.24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -5667,8 +5728,2151 @@
         <v>39.75</v>
       </c>
     </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>0.1</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>6.1334020000000003E-2</v>
+      </c>
+      <c r="D18">
+        <v>6.1301929999999998E-2</v>
+      </c>
+      <c r="E18">
+        <v>6.1253780000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>6.1269780000000003E-2</v>
+      </c>
+      <c r="G18">
+        <v>6.126434E-2</v>
+      </c>
+      <c r="H18">
+        <v>6.1254120000000002E-2</v>
+      </c>
+      <c r="I18">
+        <v>6.1289799999999998E-2</v>
+      </c>
+      <c r="J18">
+        <v>6.126873E-2</v>
+      </c>
+      <c r="K18">
+        <v>6.1294670000000002E-2</v>
+      </c>
+      <c r="L18">
+        <v>6.1303080000000003E-2</v>
+      </c>
+      <c r="N18">
+        <v>1000</v>
+      </c>
+      <c r="P18">
+        <f>AVERAGE(C65:L65)</f>
+        <v>6.2191603999999998E-2</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(C53:L53)</f>
+        <v>6.2130088000000007E-2</v>
+      </c>
+      <c r="R18">
+        <f>AVERAGE(C41:L41)</f>
+        <v>6.2116093999999997E-2</v>
+      </c>
+      <c r="S18">
+        <f>AVERAGE(C29:L29)</f>
+        <v>6.1897123000000012E-2</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(C18:L18)</f>
+        <v>6.1283425000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>6.1247349999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.1246830000000002E-2</v>
+      </c>
+      <c r="E19">
+        <v>6.1254459999999997E-2</v>
+      </c>
+      <c r="F19">
+        <v>6.1239210000000002E-2</v>
+      </c>
+      <c r="G19">
+        <v>6.123497E-2</v>
+      </c>
+      <c r="H19">
+        <v>6.1234459999999998E-2</v>
+      </c>
+      <c r="I19">
+        <v>6.1233419999999997E-2</v>
+      </c>
+      <c r="J19">
+        <v>6.1248959999999998E-2</v>
+      </c>
+      <c r="K19">
+        <v>6.1227839999999999E-2</v>
+      </c>
+      <c r="L19">
+        <v>6.1240969999999999E-2</v>
+      </c>
+      <c r="N19">
+        <v>5000</v>
+      </c>
+      <c r="P19">
+        <f>AVERAGE(C66:L66)</f>
+        <v>6.2078060000000004E-2</v>
+      </c>
+      <c r="Q19">
+        <f>AVERAGE(C54:L54)</f>
+        <v>6.2070325999999995E-2</v>
+      </c>
+      <c r="R19">
+        <f>AVERAGE(C42:L42)</f>
+        <v>6.2070945000000002E-2</v>
+      </c>
+      <c r="S19">
+        <f>AVERAGE(C30:L30)</f>
+        <v>6.1859570999999988E-2</v>
+      </c>
+      <c r="T19">
+        <f>AVERAGE(C19:L19)</f>
+        <v>6.1240847000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>6.1238269999999997E-2</v>
+      </c>
+      <c r="D20">
+        <v>6.1247049999999997E-2</v>
+      </c>
+      <c r="E20">
+        <v>6.1229890000000002E-2</v>
+      </c>
+      <c r="F20">
+        <v>6.123456E-2</v>
+      </c>
+      <c r="G20">
+        <v>6.125423E-2</v>
+      </c>
+      <c r="H20">
+        <v>6.1221159999999997E-2</v>
+      </c>
+      <c r="I20">
+        <v>6.1241950000000003E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.1231849999999997E-2</v>
+      </c>
+      <c r="K20">
+        <v>6.1249949999999997E-2</v>
+      </c>
+      <c r="L20">
+        <v>6.1256680000000001E-2</v>
+      </c>
+      <c r="N20">
+        <v>10000</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGE(C67:L67)</f>
+        <v>6.2068791999999998E-2</v>
+      </c>
+      <c r="Q20">
+        <f>AVERAGE(C55:L55)</f>
+        <v>6.2066651000000007E-2</v>
+      </c>
+      <c r="R20">
+        <f>AVERAGE(C43:L43)</f>
+        <v>6.2060804000000004E-2</v>
+      </c>
+      <c r="S20">
+        <f>AVERAGE(C31:L31)</f>
+        <v>6.1855163999999997E-2</v>
+      </c>
+      <c r="T20">
+        <f>AVERAGE(C20:L20)</f>
+        <v>6.1240558999999993E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="C23">
+        <v>6.1303139999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>6.1321760000000003E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.1303669999999998E-2</v>
+      </c>
+      <c r="F23">
+        <v>6.1312890000000002E-2</v>
+      </c>
+      <c r="G23">
+        <v>6.1290579999999997E-2</v>
+      </c>
+      <c r="H23">
+        <v>6.1295349999999998E-2</v>
+      </c>
+      <c r="I23">
+        <v>6.130422E-2</v>
+      </c>
+      <c r="J23">
+        <v>6.129764E-2</v>
+      </c>
+      <c r="K23">
+        <v>6.1290329999999997E-2</v>
+      </c>
+      <c r="L23">
+        <v>6.1296009999999998E-2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>6.1248339999999998E-2</v>
+      </c>
+      <c r="D24">
+        <v>6.1252519999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>6.1249030000000003E-2</v>
+      </c>
+      <c r="F24">
+        <v>6.1242400000000002E-2</v>
+      </c>
+      <c r="G24">
+        <v>6.1257789999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>6.1232559999999998E-2</v>
+      </c>
+      <c r="I24">
+        <v>6.1245519999999998E-2</v>
+      </c>
+      <c r="J24">
+        <v>6.1233999999999997E-2</v>
+      </c>
+      <c r="K24">
+        <v>6.1237340000000001E-2</v>
+      </c>
+      <c r="L24">
+        <v>6.1251220000000002E-2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10000</v>
+      </c>
+      <c r="C25">
+        <v>6.124222E-2</v>
+      </c>
+      <c r="D25">
+        <v>6.1229730000000003E-2</v>
+      </c>
+      <c r="E25">
+        <v>6.12387E-2</v>
+      </c>
+      <c r="F25">
+        <v>6.1224800000000003E-2</v>
+      </c>
+      <c r="G25">
+        <v>6.1242039999999998E-2</v>
+      </c>
+      <c r="H25">
+        <v>6.1236800000000001E-2</v>
+      </c>
+      <c r="I25">
+        <v>6.1234799999999999E-2</v>
+      </c>
+      <c r="J25">
+        <v>6.1233469999999998E-2</v>
+      </c>
+      <c r="K25">
+        <v>6.1245510000000003E-2</v>
+      </c>
+      <c r="L25">
+        <v>6.1244819999999998E-2</v>
+      </c>
+      <c r="N25">
+        <v>1000</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGE(C71:L71)</f>
+        <v>6.2124327999999993E-2</v>
+      </c>
+      <c r="Q25">
+        <f>AVERAGE(C59:L59)</f>
+        <v>6.2129100999999999E-2</v>
+      </c>
+      <c r="R25">
+        <f>AVERAGE(C47:L47)</f>
+        <v>6.210562599999999E-2</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGE(C35:L35)</f>
+        <v>6.1913391999999998E-2</v>
+      </c>
+      <c r="T25">
+        <f>AVERAGE(C23:L23)</f>
+        <v>6.1301558999999992E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>5000</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGE(C72:L72)</f>
+        <v>6.2080402E-2</v>
+      </c>
+      <c r="Q26">
+        <f>AVERAGE(C60:L60)</f>
+        <v>6.2074164999999994E-2</v>
+      </c>
+      <c r="R26">
+        <f>AVERAGE(C48:L48)</f>
+        <v>6.2067522999999999E-2</v>
+      </c>
+      <c r="S26">
+        <f>AVERAGE(C36:L36)</f>
+        <v>6.1860314000000007E-2</v>
+      </c>
+      <c r="T26">
+        <f>AVERAGE(C24:L24)</f>
+        <v>6.1245071999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>10000</v>
+      </c>
+      <c r="P27">
+        <f>AVERAGE(C73:L73)</f>
+        <v>6.2059288999999997E-2</v>
+      </c>
+      <c r="Q27">
+        <f>AVERAGE(C61:L61)</f>
+        <v>6.2063289999999993E-2</v>
+      </c>
+      <c r="R27">
+        <f>AVERAGE(C49:L49)</f>
+        <v>6.2060330999999989E-2</v>
+      </c>
+      <c r="S27">
+        <f>AVERAGE(C37:L37)</f>
+        <v>6.1851937000000003E-2</v>
+      </c>
+      <c r="T27">
+        <f>AVERAGE(C25:L25)</f>
+        <v>6.1237288999999993E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="C29">
+        <v>6.1935179999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>6.1887860000000003E-2</v>
+      </c>
+      <c r="E29">
+        <v>6.1933259999999997E-2</v>
+      </c>
+      <c r="F29">
+        <v>6.190822E-2</v>
+      </c>
+      <c r="G29">
+        <v>6.1889340000000001E-2</v>
+      </c>
+      <c r="H29">
+        <v>6.1909100000000002E-2</v>
+      </c>
+      <c r="I29">
+        <v>6.1926250000000002E-2</v>
+      </c>
+      <c r="J29">
+        <v>6.1868659999999999E-2</v>
+      </c>
+      <c r="K29">
+        <v>6.1825959999999999E-2</v>
+      </c>
+      <c r="L29">
+        <v>6.1887400000000002E-2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5000</v>
+      </c>
+      <c r="C30">
+        <v>6.1866190000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>6.1843960000000003E-2</v>
+      </c>
+      <c r="E30">
+        <v>6.184659E-2</v>
+      </c>
+      <c r="F30">
+        <v>6.1862189999999997E-2</v>
+      </c>
+      <c r="G30">
+        <v>6.1858099999999999E-2</v>
+      </c>
+      <c r="H30">
+        <v>6.1855210000000001E-2</v>
+      </c>
+      <c r="I30">
+        <v>6.1850710000000003E-2</v>
+      </c>
+      <c r="J30">
+        <v>6.189774E-2</v>
+      </c>
+      <c r="K30">
+        <v>6.1845839999999999E-2</v>
+      </c>
+      <c r="L30">
+        <v>6.1869180000000003E-2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>0.1</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10000</v>
+      </c>
+      <c r="C31">
+        <v>6.185189E-2</v>
+      </c>
+      <c r="D31">
+        <v>6.1867449999999997E-2</v>
+      </c>
+      <c r="E31">
+        <v>6.1843410000000001E-2</v>
+      </c>
+      <c r="F31">
+        <v>6.1847859999999998E-2</v>
+      </c>
+      <c r="G31">
+        <v>6.185761E-2</v>
+      </c>
+      <c r="H31">
+        <v>6.185036E-2</v>
+      </c>
+      <c r="I31">
+        <v>6.1850580000000002E-2</v>
+      </c>
+      <c r="J31">
+        <v>6.1849599999999998E-2</v>
+      </c>
+      <c r="K31">
+        <v>6.1866619999999997E-2</v>
+      </c>
+      <c r="L31">
+        <v>6.1866259999999999E-2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>1000</v>
+      </c>
+      <c r="P32" s="1">
+        <f>STDEV(C65:L65)</f>
+        <v>4.8525797766641261E-5</v>
+      </c>
+      <c r="Q32" s="1">
+        <f>STDEV(C53:L53)</f>
+        <v>4.5167393302888111E-5</v>
+      </c>
+      <c r="R32" s="1">
+        <f>STDEV(C41:L41)</f>
+        <v>4.4616891968053117E-5</v>
+      </c>
+      <c r="S32" s="1">
+        <f>STDEV(C29:L29)</f>
+        <v>3.3307359897375951E-5</v>
+      </c>
+      <c r="T32" s="1">
+        <f>STDEV(C18:L18)</f>
+        <v>2.5732975062273006E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33">
+        <v>5000</v>
+      </c>
+      <c r="P33" s="1">
+        <f>STDEV(C66:L66)</f>
+        <v>3.0905370263291378E-5</v>
+      </c>
+      <c r="Q33" s="1">
+        <f>STDEV(C54:L54)</f>
+        <v>1.8710169071033905E-5</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" ref="R33:R34" si="0">STDEV(C42:L42)</f>
+        <v>2.5545167079335071E-5</v>
+      </c>
+      <c r="S33" s="1">
+        <f>STDEV(C30:L30)</f>
+        <v>1.598723549863695E-5</v>
+      </c>
+      <c r="T33" s="1">
+        <f>STDEV(C19:L19)</f>
+        <v>8.3771515312651557E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>10000</v>
+      </c>
+      <c r="P34" s="1">
+        <f>STDEV(C67:L67)</f>
+        <v>2.7821448480542952E-5</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>STDEV(C55:L55)</f>
+        <v>1.8578253984459163E-5</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4975392556531982E-5</v>
+      </c>
+      <c r="S34" s="1">
+        <f>STDEV(C31:L31)</f>
+        <v>8.7468307911422552E-6</v>
+      </c>
+      <c r="T34" s="1">
+        <f>STDEV(C20:L20)</f>
+        <v>1.1480731151707507E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1000</v>
+      </c>
+      <c r="C35">
+        <v>6.1929339999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>6.1910390000000003E-2</v>
+      </c>
+      <c r="E35">
+        <v>6.1897729999999998E-2</v>
+      </c>
+      <c r="F35">
+        <v>6.1902800000000001E-2</v>
+      </c>
+      <c r="G35">
+        <v>6.1907909999999997E-2</v>
+      </c>
+      <c r="H35">
+        <v>6.1918870000000001E-2</v>
+      </c>
+      <c r="I35">
+        <v>6.192073E-2</v>
+      </c>
+      <c r="J35">
+        <v>6.1914249999999997E-2</v>
+      </c>
+      <c r="K35">
+        <v>6.1949249999999997E-2</v>
+      </c>
+      <c r="L35">
+        <v>6.1882649999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5000</v>
+      </c>
+      <c r="C36">
+        <v>6.1856120000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>6.185599E-2</v>
+      </c>
+      <c r="E36">
+        <v>6.1873610000000002E-2</v>
+      </c>
+      <c r="F36">
+        <v>6.1855309999999997E-2</v>
+      </c>
+      <c r="G36">
+        <v>6.184862E-2</v>
+      </c>
+      <c r="H36">
+        <v>6.1861880000000001E-2</v>
+      </c>
+      <c r="I36">
+        <v>6.1868640000000003E-2</v>
+      </c>
+      <c r="J36">
+        <v>6.185649E-2</v>
+      </c>
+      <c r="K36">
+        <v>6.1854909999999999E-2</v>
+      </c>
+      <c r="L36">
+        <v>6.1871570000000001E-2</v>
+      </c>
+      <c r="P36" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10000</v>
+      </c>
+      <c r="C37">
+        <v>6.1859039999999997E-2</v>
+      </c>
+      <c r="D37">
+        <v>6.1853400000000003E-2</v>
+      </c>
+      <c r="E37">
+        <v>6.1850339999999997E-2</v>
+      </c>
+      <c r="F37">
+        <v>6.1848670000000001E-2</v>
+      </c>
+      <c r="G37">
+        <v>6.185595E-2</v>
+      </c>
+      <c r="H37">
+        <v>6.1851089999999997E-2</v>
+      </c>
+      <c r="I37">
+        <v>6.1853850000000002E-2</v>
+      </c>
+      <c r="J37">
+        <v>6.1859530000000003E-2</v>
+      </c>
+      <c r="K37">
+        <v>6.1847050000000001E-2</v>
+      </c>
+      <c r="L37">
+        <v>6.1840449999999998E-2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37">
+        <v>0.1</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39">
+        <v>1000</v>
+      </c>
+      <c r="P39" s="1">
+        <f>STDEV(C71:L71)</f>
+        <v>4.5605305441850328E-5</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>STDEV(C59:L59)</f>
+        <v>4.0248318515601167E-5</v>
+      </c>
+      <c r="R39" s="1">
+        <f>STDEV(C47:L47)</f>
+        <v>3.5642953550145272E-5</v>
+      </c>
+      <c r="S39" s="1">
+        <f>STDEV(C35:L35)</f>
+        <v>1.8154734185146756E-5</v>
+      </c>
+      <c r="T39" s="1">
+        <f>STDEV(C23:L23)</f>
+        <v>9.8985929976622225E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>5000</v>
+      </c>
+      <c r="P40" s="1">
+        <f>STDEV(C72:L72)</f>
+        <v>2.974035597186593E-5</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>STDEV(C60:L60)</f>
+        <v>1.6122085093988417E-5</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" ref="R40:R41" si="1">STDEV(C48:L48)</f>
+        <v>1.1648529759396487E-5</v>
+      </c>
+      <c r="S40" s="1">
+        <f>STDEV(C36:L36)</f>
+        <v>8.2808899146043896E-6</v>
+      </c>
+      <c r="T40" s="1">
+        <f>STDEV(C24:L24)</f>
+        <v>8.3508293666628606E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1000</v>
+      </c>
+      <c r="C41">
+        <v>6.2059570000000001E-2</v>
+      </c>
+      <c r="D41">
+        <v>6.213159E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.2151610000000003E-2</v>
+      </c>
+      <c r="F41">
+        <v>6.2179940000000003E-2</v>
+      </c>
+      <c r="G41">
+        <v>6.2107919999999997E-2</v>
+      </c>
+      <c r="H41">
+        <v>6.206503E-2</v>
+      </c>
+      <c r="I41">
+        <v>6.2142179999999998E-2</v>
+      </c>
+      <c r="J41">
+        <v>6.2070319999999998E-2</v>
+      </c>
+      <c r="K41">
+        <v>6.2168109999999999E-2</v>
+      </c>
+      <c r="L41">
+        <v>6.2084670000000002E-2</v>
+      </c>
+      <c r="N41">
+        <v>10000</v>
+      </c>
+      <c r="P41" s="1">
+        <f>STDEV(C73:L73)</f>
+        <v>1.5054903557017604E-5</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>STDEV(C61:L61)</f>
+        <v>7.6673593889945379E-6</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5239368186825851E-6</v>
+      </c>
+      <c r="S41" s="1">
+        <f>STDEV(C37:L37)</f>
+        <v>5.7714374292723893E-6</v>
+      </c>
+      <c r="T41" s="1">
+        <f>STDEV(C25:L25)</f>
+        <v>6.7273165361656024E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5000</v>
+      </c>
+      <c r="C42">
+        <v>6.2054369999999998E-2</v>
+      </c>
+      <c r="D42">
+        <v>6.209514E-2</v>
+      </c>
+      <c r="E42">
+        <v>6.206031E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.2120599999999998E-2</v>
+      </c>
+      <c r="G42">
+        <v>6.2035359999999998E-2</v>
+      </c>
+      <c r="H42">
+        <v>6.2079389999999998E-2</v>
+      </c>
+      <c r="I42">
+        <v>6.2051219999999997E-2</v>
+      </c>
+      <c r="J42">
+        <v>6.2063939999999998E-2</v>
+      </c>
+      <c r="K42">
+        <v>6.2092340000000003E-2</v>
+      </c>
+      <c r="L42">
+        <v>6.2056779999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10000</v>
+      </c>
+      <c r="C43">
+        <v>6.2060780000000003E-2</v>
+      </c>
+      <c r="D43">
+        <v>6.203856E-2</v>
+      </c>
+      <c r="E43">
+        <v>6.2068489999999997E-2</v>
+      </c>
+      <c r="F43">
+        <v>6.2076190000000003E-2</v>
+      </c>
+      <c r="G43">
+        <v>6.2057750000000002E-2</v>
+      </c>
+      <c r="H43">
+        <v>6.2091420000000001E-2</v>
+      </c>
+      <c r="I43">
+        <v>6.2057639999999997E-2</v>
+      </c>
+      <c r="J43">
+        <v>6.2047070000000003E-2</v>
+      </c>
+      <c r="K43">
+        <v>6.2052179999999998E-2</v>
+      </c>
+      <c r="L43">
+        <v>6.2057960000000002E-2</v>
+      </c>
+      <c r="P43">
+        <v>0.1</v>
+      </c>
+      <c r="Q43">
+        <v>0.5</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1000</v>
+      </c>
+      <c r="C47">
+        <v>6.2126670000000002E-2</v>
+      </c>
+      <c r="D47">
+        <v>6.2113260000000003E-2</v>
+      </c>
+      <c r="E47">
+        <v>6.2054640000000001E-2</v>
+      </c>
+      <c r="F47">
+        <v>6.2040829999999998E-2</v>
+      </c>
+      <c r="G47">
+        <v>6.2130709999999999E-2</v>
+      </c>
+      <c r="H47">
+        <v>6.2148500000000002E-2</v>
+      </c>
+      <c r="I47">
+        <v>6.2084760000000003E-2</v>
+      </c>
+      <c r="J47">
+        <v>6.2129839999999999E-2</v>
+      </c>
+      <c r="K47">
+        <v>6.2097390000000002E-2</v>
+      </c>
+      <c r="L47">
+        <v>6.2129660000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5000</v>
+      </c>
+      <c r="C48">
+        <v>6.2079450000000001E-2</v>
+      </c>
+      <c r="D48">
+        <v>6.2071939999999999E-2</v>
+      </c>
+      <c r="E48">
+        <v>6.2058040000000002E-2</v>
+      </c>
+      <c r="F48">
+        <v>6.2084159999999999E-2</v>
+      </c>
+      <c r="G48">
+        <v>6.2070819999999999E-2</v>
+      </c>
+      <c r="H48">
+        <v>6.2064800000000003E-2</v>
+      </c>
+      <c r="I48">
+        <v>6.20531E-2</v>
+      </c>
+      <c r="J48">
+        <v>6.2057840000000003E-2</v>
+      </c>
+      <c r="K48">
+        <v>6.2081190000000001E-2</v>
+      </c>
+      <c r="L48">
+        <v>6.205389E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10000</v>
+      </c>
+      <c r="C49">
+        <v>6.206644E-2</v>
+      </c>
+      <c r="D49">
+        <v>6.207352E-2</v>
+      </c>
+      <c r="E49">
+        <v>6.2071790000000002E-2</v>
+      </c>
+      <c r="F49">
+        <v>6.205517E-2</v>
+      </c>
+      <c r="G49">
+        <v>6.2056229999999997E-2</v>
+      </c>
+      <c r="H49">
+        <v>6.2055730000000003E-2</v>
+      </c>
+      <c r="I49">
+        <v>6.2061770000000002E-2</v>
+      </c>
+      <c r="J49">
+        <v>6.2044820000000001E-2</v>
+      </c>
+      <c r="K49">
+        <v>6.2059110000000001E-2</v>
+      </c>
+      <c r="L49">
+        <v>6.2058729999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1000</v>
+      </c>
+      <c r="C53">
+        <v>6.2136329999999997E-2</v>
+      </c>
+      <c r="D53">
+        <v>6.2137119999999997E-2</v>
+      </c>
+      <c r="E53">
+        <v>6.2051740000000001E-2</v>
+      </c>
+      <c r="F53">
+        <v>6.2124489999999997E-2</v>
+      </c>
+      <c r="G53">
+        <v>6.2126470000000003E-2</v>
+      </c>
+      <c r="H53">
+        <v>6.2095369999999997E-2</v>
+      </c>
+      <c r="I53">
+        <v>6.214803E-2</v>
+      </c>
+      <c r="J53">
+        <v>6.2107959999999997E-2</v>
+      </c>
+      <c r="K53">
+        <v>6.22295E-2</v>
+      </c>
+      <c r="L53">
+        <v>6.2143869999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5000</v>
+      </c>
+      <c r="C54">
+        <v>6.2079099999999998E-2</v>
+      </c>
+      <c r="D54">
+        <v>6.2062390000000002E-2</v>
+      </c>
+      <c r="E54">
+        <v>6.2102190000000002E-2</v>
+      </c>
+      <c r="F54">
+        <v>6.2043620000000001E-2</v>
+      </c>
+      <c r="G54">
+        <v>6.207128E-2</v>
+      </c>
+      <c r="H54">
+        <v>6.2093130000000003E-2</v>
+      </c>
+      <c r="I54">
+        <v>6.2058750000000003E-2</v>
+      </c>
+      <c r="J54">
+        <v>6.2071750000000002E-2</v>
+      </c>
+      <c r="K54">
+        <v>6.2075239999999997E-2</v>
+      </c>
+      <c r="L54">
+        <v>6.204581E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10000</v>
+      </c>
+      <c r="C55">
+        <v>6.2085479999999998E-2</v>
+      </c>
+      <c r="D55">
+        <v>6.2047350000000001E-2</v>
+      </c>
+      <c r="E55">
+        <v>6.2083010000000001E-2</v>
+      </c>
+      <c r="F55">
+        <v>6.2048720000000002E-2</v>
+      </c>
+      <c r="G55">
+        <v>6.2093839999999997E-2</v>
+      </c>
+      <c r="H55">
+        <v>6.2088169999999998E-2</v>
+      </c>
+      <c r="I55">
+        <v>6.2052139999999999E-2</v>
+      </c>
+      <c r="J55">
+        <v>6.20606E-2</v>
+      </c>
+      <c r="K55">
+        <v>6.2053690000000002E-2</v>
+      </c>
+      <c r="L55">
+        <v>6.2053509999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="C59">
+        <v>6.216758E-2</v>
+      </c>
+      <c r="D59">
+        <v>6.2108530000000002E-2</v>
+      </c>
+      <c r="E59">
+        <v>6.220701E-2</v>
+      </c>
+      <c r="F59">
+        <v>6.2144659999999997E-2</v>
+      </c>
+      <c r="G59">
+        <v>6.2090119999999999E-2</v>
+      </c>
+      <c r="H59">
+        <v>6.2117209999999999E-2</v>
+      </c>
+      <c r="I59">
+        <v>6.2077220000000002E-2</v>
+      </c>
+      <c r="J59">
+        <v>6.2095020000000001E-2</v>
+      </c>
+      <c r="K59">
+        <v>6.2125619999999999E-2</v>
+      </c>
+      <c r="L59">
+        <v>6.2158039999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5000</v>
+      </c>
+      <c r="C60">
+        <v>6.2070739999999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>6.2095699999999997E-2</v>
+      </c>
+      <c r="E60">
+        <v>6.2084390000000003E-2</v>
+      </c>
+      <c r="F60">
+        <v>6.2073929999999999E-2</v>
+      </c>
+      <c r="G60">
+        <v>6.2056269999999997E-2</v>
+      </c>
+      <c r="H60">
+        <v>6.2097180000000002E-2</v>
+      </c>
+      <c r="I60">
+        <v>6.207298E-2</v>
+      </c>
+      <c r="J60">
+        <v>6.2081240000000003E-2</v>
+      </c>
+      <c r="K60">
+        <v>6.2047789999999999E-2</v>
+      </c>
+      <c r="L60">
+        <v>6.2061430000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>10000</v>
+      </c>
+      <c r="C61">
+        <v>6.2051660000000002E-2</v>
+      </c>
+      <c r="D61">
+        <v>6.206855E-2</v>
+      </c>
+      <c r="E61">
+        <v>6.2062050000000001E-2</v>
+      </c>
+      <c r="F61">
+        <v>6.206018E-2</v>
+      </c>
+      <c r="G61">
+        <v>6.2067150000000001E-2</v>
+      </c>
+      <c r="H61">
+        <v>6.207124E-2</v>
+      </c>
+      <c r="I61">
+        <v>6.2049529999999999E-2</v>
+      </c>
+      <c r="J61">
+        <v>6.207087E-2</v>
+      </c>
+      <c r="K61">
+        <v>6.2062909999999999E-2</v>
+      </c>
+      <c r="L61">
+        <v>6.2068760000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1000</v>
+      </c>
+      <c r="C65">
+        <v>6.2222319999999998E-2</v>
+      </c>
+      <c r="D65">
+        <v>6.214414E-2</v>
+      </c>
+      <c r="E65">
+        <v>6.21863E-2</v>
+      </c>
+      <c r="F65">
+        <v>6.2166779999999998E-2</v>
+      </c>
+      <c r="G65">
+        <v>6.2216140000000003E-2</v>
+      </c>
+      <c r="H65">
+        <v>6.22775E-2</v>
+      </c>
+      <c r="I65">
+        <v>6.2122629999999998E-2</v>
+      </c>
+      <c r="J65">
+        <v>6.2201090000000001E-2</v>
+      </c>
+      <c r="K65">
+        <v>6.2237090000000002E-2</v>
+      </c>
+      <c r="L65">
+        <v>6.2142049999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5000</v>
+      </c>
+      <c r="C66">
+        <v>6.2069569999999998E-2</v>
+      </c>
+      <c r="D66">
+        <v>6.2116350000000001E-2</v>
+      </c>
+      <c r="E66">
+        <v>6.2021279999999998E-2</v>
+      </c>
+      <c r="F66">
+        <v>6.2093910000000002E-2</v>
+      </c>
+      <c r="G66">
+        <v>6.2054419999999999E-2</v>
+      </c>
+      <c r="H66">
+        <v>6.2095060000000001E-2</v>
+      </c>
+      <c r="I66">
+        <v>6.2124239999999997E-2</v>
+      </c>
+      <c r="J66">
+        <v>6.2077609999999998E-2</v>
+      </c>
+      <c r="K66">
+        <v>6.2053799999999999E-2</v>
+      </c>
+      <c r="L66">
+        <v>6.2074360000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10000</v>
+      </c>
+      <c r="C67">
+        <v>6.2065969999999998E-2</v>
+      </c>
+      <c r="D67">
+        <v>6.2115549999999999E-2</v>
+      </c>
+      <c r="E67">
+        <v>6.203434E-2</v>
+      </c>
+      <c r="F67">
+        <v>6.2050689999999999E-2</v>
+      </c>
+      <c r="G67">
+        <v>6.2092389999999997E-2</v>
+      </c>
+      <c r="H67">
+        <v>6.2057470000000003E-2</v>
+      </c>
+      <c r="I67">
+        <v>6.2068610000000003E-2</v>
+      </c>
+      <c r="J67">
+        <v>6.207302E-2</v>
+      </c>
+      <c r="K67">
+        <v>6.202941E-2</v>
+      </c>
+      <c r="L67">
+        <v>6.2100469999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1000</v>
+      </c>
+      <c r="C71">
+        <v>6.2110220000000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>6.2172560000000002E-2</v>
+      </c>
+      <c r="E71">
+        <v>6.2070340000000002E-2</v>
+      </c>
+      <c r="F71">
+        <v>6.207754E-2</v>
+      </c>
+      <c r="G71">
+        <v>6.2143579999999997E-2</v>
+      </c>
+      <c r="H71">
+        <v>6.2169210000000003E-2</v>
+      </c>
+      <c r="I71">
+        <v>6.2051389999999998E-2</v>
+      </c>
+      <c r="J71">
+        <v>6.2128030000000001E-2</v>
+      </c>
+      <c r="K71">
+        <v>6.2180159999999998E-2</v>
+      </c>
+      <c r="L71">
+        <v>6.2140250000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5000</v>
+      </c>
+      <c r="C72">
+        <v>6.2015710000000002E-2</v>
+      </c>
+      <c r="D72">
+        <v>6.2082180000000001E-2</v>
+      </c>
+      <c r="E72">
+        <v>6.2077029999999998E-2</v>
+      </c>
+      <c r="F72">
+        <v>6.2075039999999998E-2</v>
+      </c>
+      <c r="G72">
+        <v>6.210628E-2</v>
+      </c>
+      <c r="H72">
+        <v>6.2080179999999999E-2</v>
+      </c>
+      <c r="I72">
+        <v>6.2127149999999999E-2</v>
+      </c>
+      <c r="J72">
+        <v>6.2055989999999998E-2</v>
+      </c>
+      <c r="K72">
+        <v>6.2091449999999999E-2</v>
+      </c>
+      <c r="L72">
+        <v>6.2093009999999997E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10000</v>
+      </c>
+      <c r="C73">
+        <v>6.2059660000000003E-2</v>
+      </c>
+      <c r="D73">
+        <v>6.20473E-2</v>
+      </c>
+      <c r="E73">
+        <v>6.2064429999999997E-2</v>
+      </c>
+      <c r="F73">
+        <v>6.2046850000000001E-2</v>
+      </c>
+      <c r="G73">
+        <v>6.2065080000000002E-2</v>
+      </c>
+      <c r="H73">
+        <v>6.208835E-2</v>
+      </c>
+      <c r="I73">
+        <v>6.2032610000000002E-2</v>
+      </c>
+      <c r="J73">
+        <v>6.2057630000000003E-2</v>
+      </c>
+      <c r="K73">
+        <v>6.2060730000000001E-2</v>
+      </c>
+      <c r="L73">
+        <v>6.207025E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>999.96</v>
+      </c>
+      <c r="D75">
+        <v>999.97</v>
+      </c>
+      <c r="E75">
+        <v>999.97</v>
+      </c>
+      <c r="F75">
+        <v>999.95</v>
+      </c>
+      <c r="G75">
+        <v>999.96</v>
+      </c>
+      <c r="H75">
+        <v>999.96</v>
+      </c>
+      <c r="I75">
+        <v>999.97</v>
+      </c>
+      <c r="J75">
+        <v>999.95</v>
+      </c>
+      <c r="K75">
+        <v>999.95</v>
+      </c>
+      <c r="L75">
+        <v>999.95</v>
+      </c>
+      <c r="N75">
+        <f>AVERAGE(C75:L75)/1000</f>
+        <v>0.99995900000000015</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>4999.8100000000004</v>
+      </c>
+      <c r="D76">
+        <v>4999.8100000000004</v>
+      </c>
+      <c r="E76">
+        <v>4999.83</v>
+      </c>
+      <c r="F76">
+        <v>4999.8500000000004</v>
+      </c>
+      <c r="G76">
+        <v>4999.8500000000004</v>
+      </c>
+      <c r="H76">
+        <v>4999.83</v>
+      </c>
+      <c r="I76">
+        <v>4999.8100000000004</v>
+      </c>
+      <c r="J76">
+        <v>4999.8</v>
+      </c>
+      <c r="K76">
+        <v>4999.8500000000004</v>
+      </c>
+      <c r="L76">
+        <v>4999.82</v>
+      </c>
+      <c r="N76">
+        <f>AVERAGE(C76:L76)/5000</f>
+        <v>0.9999652</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>9999.65</v>
+      </c>
+      <c r="D77">
+        <v>9999.59</v>
+      </c>
+      <c r="E77">
+        <v>9999.6299999999992</v>
+      </c>
+      <c r="F77">
+        <v>9999.61</v>
+      </c>
+      <c r="G77">
+        <v>9999.64</v>
+      </c>
+      <c r="H77">
+        <v>9999.7000000000007</v>
+      </c>
+      <c r="I77">
+        <v>9999.65</v>
+      </c>
+      <c r="J77">
+        <v>9999.66</v>
+      </c>
+      <c r="K77">
+        <v>9999.66</v>
+      </c>
+      <c r="L77">
+        <v>9999.64</v>
+      </c>
+      <c r="N77">
+        <f>AVERAGE(C77:L77)/10000</f>
+        <v>0.99996430000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>999.1</v>
+      </c>
+      <c r="D79">
+        <v>999.07</v>
+      </c>
+      <c r="E79">
+        <v>999.14</v>
+      </c>
+      <c r="F79">
+        <v>999.06</v>
+      </c>
+      <c r="G79">
+        <v>999.12</v>
+      </c>
+      <c r="H79">
+        <v>999.14</v>
+      </c>
+      <c r="I79">
+        <v>999.13</v>
+      </c>
+      <c r="J79">
+        <v>999.09</v>
+      </c>
+      <c r="K79">
+        <v>999.07</v>
+      </c>
+      <c r="L79">
+        <v>999.05</v>
+      </c>
+      <c r="N79">
+        <f>AVERAGE(C79:L79)/1000</f>
+        <v>0.99909700000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>4995.62</v>
+      </c>
+      <c r="D80">
+        <v>4995.7</v>
+      </c>
+      <c r="E80">
+        <v>4995.55</v>
+      </c>
+      <c r="F80">
+        <v>4995.6099999999997</v>
+      </c>
+      <c r="G80">
+        <v>4995.68</v>
+      </c>
+      <c r="H80">
+        <v>4995.6099999999997</v>
+      </c>
+      <c r="I80">
+        <v>4995.62</v>
+      </c>
+      <c r="J80">
+        <v>4995.6000000000004</v>
+      </c>
+      <c r="K80">
+        <v>4995.5</v>
+      </c>
+      <c r="L80">
+        <v>4995.6000000000004</v>
+      </c>
+      <c r="N80">
+        <f>AVERAGE(C80:L80)/5000</f>
+        <v>0.99912179999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>9991.31</v>
+      </c>
+      <c r="D81">
+        <v>9991.3799999999992</v>
+      </c>
+      <c r="E81">
+        <v>9991.19</v>
+      </c>
+      <c r="F81">
+        <v>9991.35</v>
+      </c>
+      <c r="G81">
+        <v>9991.24</v>
+      </c>
+      <c r="H81">
+        <v>9991.15</v>
+      </c>
+      <c r="I81">
+        <v>9991.3799999999992</v>
+      </c>
+      <c r="J81">
+        <v>9991.27</v>
+      </c>
+      <c r="K81">
+        <v>9991.49</v>
+      </c>
+      <c r="L81">
+        <v>9991.26</v>
+      </c>
+      <c r="N81">
+        <f>AVERAGE(C81:L81)/10000</f>
+        <v>0.99913019999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>996.52</v>
+      </c>
+      <c r="D83">
+        <v>996.56</v>
+      </c>
+      <c r="E83">
+        <v>996.45</v>
+      </c>
+      <c r="F83">
+        <v>996.51</v>
+      </c>
+      <c r="G83">
+        <v>996.51</v>
+      </c>
+      <c r="H83">
+        <v>996.54</v>
+      </c>
+      <c r="I83">
+        <v>996.48</v>
+      </c>
+      <c r="J83">
+        <v>996.53</v>
+      </c>
+      <c r="K83">
+        <v>996.55</v>
+      </c>
+      <c r="L83">
+        <v>996.54</v>
+      </c>
+      <c r="N83">
+        <f>AVERAGE(C83:L83)/1000</f>
+        <v>0.99651899999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>4983</v>
+      </c>
+      <c r="D84">
+        <v>4982.67</v>
+      </c>
+      <c r="E84">
+        <v>4982.7700000000004</v>
+      </c>
+      <c r="F84">
+        <v>4982.6400000000003</v>
+      </c>
+      <c r="G84">
+        <v>4982.71</v>
+      </c>
+      <c r="H84">
+        <v>4982.75</v>
+      </c>
+      <c r="I84">
+        <v>4982.72</v>
+      </c>
+      <c r="J84">
+        <v>4982.8999999999996</v>
+      </c>
+      <c r="K84">
+        <v>4982.8</v>
+      </c>
+      <c r="L84">
+        <v>4982.8</v>
+      </c>
+      <c r="N84">
+        <f>AVERAGE(C84:L84)/5000</f>
+        <v>0.9965552000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>9965.82</v>
+      </c>
+      <c r="D85">
+        <v>9965.6200000000008</v>
+      </c>
+      <c r="E85">
+        <v>9965.5</v>
+      </c>
+      <c r="F85">
+        <v>9965.43</v>
+      </c>
+      <c r="G85">
+        <v>9965.52</v>
+      </c>
+      <c r="H85">
+        <v>9965.35</v>
+      </c>
+      <c r="I85">
+        <v>9965.6299999999992</v>
+      </c>
+      <c r="J85">
+        <v>9965.8700000000008</v>
+      </c>
+      <c r="K85">
+        <v>9965.42</v>
+      </c>
+      <c r="L85">
+        <v>9965.4699999999993</v>
+      </c>
+      <c r="N85">
+        <f>AVERAGE(C85:L85)/10000</f>
+        <v>0.99655629999999984</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>920.61</v>
+      </c>
+      <c r="D87">
+        <v>920.65</v>
+      </c>
+      <c r="E87">
+        <v>920.54</v>
+      </c>
+      <c r="F87">
+        <v>920.66</v>
+      </c>
+      <c r="G87">
+        <v>920.87</v>
+      </c>
+      <c r="H87">
+        <v>920.37</v>
+      </c>
+      <c r="I87">
+        <v>920.51</v>
+      </c>
+      <c r="J87">
+        <v>920.88</v>
+      </c>
+      <c r="K87">
+        <v>920.63</v>
+      </c>
+      <c r="L87">
+        <v>920.63</v>
+      </c>
+      <c r="N87">
+        <f>AVERAGE(C87:L87)/1000</f>
+        <v>0.92063499999999987</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>4603.87</v>
+      </c>
+      <c r="D88">
+        <v>4604</v>
+      </c>
+      <c r="E88">
+        <v>4604.6000000000004</v>
+      </c>
+      <c r="F88">
+        <v>4603.75</v>
+      </c>
+      <c r="G88">
+        <v>4604.7</v>
+      </c>
+      <c r="H88">
+        <v>4604.5600000000004</v>
+      </c>
+      <c r="I88">
+        <v>4604.3999999999996</v>
+      </c>
+      <c r="J88">
+        <v>4603.8</v>
+      </c>
+      <c r="K88">
+        <v>4604.72</v>
+      </c>
+      <c r="L88">
+        <v>4604.41</v>
+      </c>
+      <c r="N88">
+        <f>AVERAGE(C88:L88)/5000</f>
+        <v>0.92085620000000012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>9208.76</v>
+      </c>
+      <c r="D89">
+        <v>9207.77</v>
+      </c>
+      <c r="E89">
+        <v>9208.8700000000008</v>
+      </c>
+      <c r="F89">
+        <v>9208.61</v>
+      </c>
+      <c r="G89">
+        <v>9208.6299999999992</v>
+      </c>
+      <c r="H89">
+        <v>9208.98</v>
+      </c>
+      <c r="I89">
+        <v>9208.6200000000008</v>
+      </c>
+      <c r="J89">
+        <v>9208.67</v>
+      </c>
+      <c r="K89">
+        <v>9208.2900000000009</v>
+      </c>
+      <c r="L89">
+        <v>9207.7900000000009</v>
+      </c>
+      <c r="N89">
+        <f>AVERAGE(C89:L89)/10000</f>
+        <v>0.92084990000000011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>715.54</v>
+      </c>
+      <c r="D91">
+        <v>716.33</v>
+      </c>
+      <c r="E91">
+        <v>716.58</v>
+      </c>
+      <c r="F91">
+        <v>715.58</v>
+      </c>
+      <c r="G91">
+        <v>716.11</v>
+      </c>
+      <c r="H91">
+        <v>716.18</v>
+      </c>
+      <c r="I91">
+        <v>715.94</v>
+      </c>
+      <c r="J91">
+        <v>715.76</v>
+      </c>
+      <c r="K91">
+        <v>716.1</v>
+      </c>
+      <c r="L91">
+        <v>715.95</v>
+      </c>
+      <c r="N91">
+        <f>AVERAGE(C91:L91)/1000</f>
+        <v>0.71600700000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>3581.45</v>
+      </c>
+      <c r="D92">
+        <v>3581.57</v>
+      </c>
+      <c r="E92">
+        <v>3582.15</v>
+      </c>
+      <c r="F92">
+        <v>3580.7</v>
+      </c>
+      <c r="G92">
+        <v>3581.53</v>
+      </c>
+      <c r="H92">
+        <v>3581.68</v>
+      </c>
+      <c r="I92">
+        <v>3582.46</v>
+      </c>
+      <c r="J92">
+        <v>3581.6</v>
+      </c>
+      <c r="K92">
+        <v>3582.77</v>
+      </c>
+      <c r="L92">
+        <v>3581.3</v>
+      </c>
+      <c r="N92">
+        <f>AVERAGE(C92:L92)/5000</f>
+        <v>0.71634419999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>7163.08</v>
+      </c>
+      <c r="D93">
+        <v>7162.42</v>
+      </c>
+      <c r="E93">
+        <v>7163.03</v>
+      </c>
+      <c r="F93">
+        <v>7163.49</v>
+      </c>
+      <c r="G93">
+        <v>7163.89</v>
+      </c>
+      <c r="H93">
+        <v>7165.39</v>
+      </c>
+      <c r="I93">
+        <v>7164.15</v>
+      </c>
+      <c r="J93">
+        <v>7164.51</v>
+      </c>
+      <c r="K93">
+        <v>7163.58</v>
+      </c>
+      <c r="L93">
+        <v>7163.47</v>
+      </c>
+      <c r="N93">
+        <f>AVERAGE(C93:L93)/10000</f>
+        <v>0.7163700999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Experimental Data/Data Graphs.xlsx
+++ b/Experimental Data/Data Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsolow\Desktop\CS446\CS446\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB9091-0016-4DC9-A4B9-AA9EB249F469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647EB52D-E3C5-4CB3-879B-02C617DE1C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
+    <workbookView xWindow="645" yWindow="1485" windowWidth="21600" windowHeight="11940" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t xml:space="preserve">Walkers: </t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>dt 10</t>
+  </si>
+  <si>
+    <t>THE WATER TRIMER NOW BABY</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>sim10</t>
+  </si>
+  <si>
+    <t>sim20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Ref </t>
+  </si>
+  <si>
+    <t>Walker Pop</t>
+  </si>
+  <si>
+    <t>Walk 10000</t>
   </si>
 </sst>
 </file>
@@ -5495,10 +5516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17403C00-ED43-4CA2-8BB5-D37A334092CE}">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T118" sqref="T118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7870,6 +7891,478 @@
         <v>0.7163700999999999</v>
       </c>
     </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="P97" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1000</v>
+      </c>
+      <c r="B98">
+        <v>0.18782888</v>
+      </c>
+      <c r="C98">
+        <v>0.18778813</v>
+      </c>
+      <c r="D98">
+        <v>0.18782974999999999</v>
+      </c>
+      <c r="E98">
+        <v>0.18758030000000001</v>
+      </c>
+      <c r="F98">
+        <v>0.18785658999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.18781149</v>
+      </c>
+      <c r="H98">
+        <v>0.18764612</v>
+      </c>
+      <c r="I98">
+        <v>0.18779372</v>
+      </c>
+      <c r="J98">
+        <v>0.18766111999999999</v>
+      </c>
+      <c r="K98">
+        <v>0.18768019</v>
+      </c>
+      <c r="O98">
+        <v>0.05</v>
+      </c>
+      <c r="P98">
+        <v>0.1</v>
+      </c>
+      <c r="Q98">
+        <v>0.5</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5000</v>
+      </c>
+      <c r="B99">
+        <v>0.18718447999999999</v>
+      </c>
+      <c r="C99">
+        <v>0.18714399000000001</v>
+      </c>
+      <c r="D99">
+        <v>0.18723966</v>
+      </c>
+      <c r="E99">
+        <v>0.18721576000000001</v>
+      </c>
+      <c r="F99">
+        <v>0.18712997000000001</v>
+      </c>
+      <c r="G99">
+        <v>0.18712894999999999</v>
+      </c>
+      <c r="H99">
+        <v>0.18731165</v>
+      </c>
+      <c r="I99">
+        <v>0.18704098999999999</v>
+      </c>
+      <c r="J99">
+        <v>0.18720684000000001</v>
+      </c>
+      <c r="K99">
+        <v>0.18716442</v>
+      </c>
+      <c r="N99">
+        <v>1000</v>
+      </c>
+      <c r="S99">
+        <f>AVERAGE(B98:K98)</f>
+        <v>0.187747629</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>10000</v>
+      </c>
+      <c r="B100">
+        <v>0.18704647999999999</v>
+      </c>
+      <c r="C100">
+        <v>0.18707130999999999</v>
+      </c>
+      <c r="D100">
+        <v>0.18711537</v>
+      </c>
+      <c r="E100">
+        <v>0.18708338999999999</v>
+      </c>
+      <c r="F100">
+        <v>0.18704287</v>
+      </c>
+      <c r="G100">
+        <v>0.18718694</v>
+      </c>
+      <c r="H100">
+        <v>0.18705401999999999</v>
+      </c>
+      <c r="I100">
+        <v>0.18714228999999999</v>
+      </c>
+      <c r="J100">
+        <v>0.18717539</v>
+      </c>
+      <c r="K100">
+        <v>0.18701329999999999</v>
+      </c>
+      <c r="N100">
+        <v>5000</v>
+      </c>
+      <c r="S100">
+        <f t="shared" ref="S100:S101" si="2">AVERAGE(B99:K99)</f>
+        <v>0.18717667100000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <v>10000</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="2"/>
+        <v>0.18709313599999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102">
+        <v>7592.17</v>
+      </c>
+      <c r="C102">
+        <v>7593.22</v>
+      </c>
+      <c r="D102">
+        <v>7592.36</v>
+      </c>
+      <c r="E102">
+        <v>7592.47</v>
+      </c>
+      <c r="F102">
+        <v>7593.17</v>
+      </c>
+      <c r="G102">
+        <v>7591.89</v>
+      </c>
+      <c r="H102">
+        <v>7592.64</v>
+      </c>
+      <c r="I102">
+        <v>7592.29</v>
+      </c>
+      <c r="J102">
+        <v>7591.94</v>
+      </c>
+      <c r="K102">
+        <v>7591.74</v>
+      </c>
+      <c r="P102" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="N103">
+        <v>1000</v>
+      </c>
+      <c r="S103">
+        <f>AVERAGE(B104:K104)</f>
+        <v>0.18777013000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1000</v>
+      </c>
+      <c r="B104">
+        <v>0.18785995</v>
+      </c>
+      <c r="C104">
+        <v>0.18792202999999999</v>
+      </c>
+      <c r="D104">
+        <v>0.18785524000000001</v>
+      </c>
+      <c r="E104">
+        <v>0.18792073000000001</v>
+      </c>
+      <c r="F104">
+        <v>0.18764078000000001</v>
+      </c>
+      <c r="G104">
+        <v>0.18754725999999999</v>
+      </c>
+      <c r="H104">
+        <v>0.18778023999999999</v>
+      </c>
+      <c r="I104">
+        <v>0.18781489000000001</v>
+      </c>
+      <c r="J104">
+        <v>0.18778979000000001</v>
+      </c>
+      <c r="K104">
+        <v>0.18757039</v>
+      </c>
+      <c r="N104">
+        <v>5000</v>
+      </c>
+      <c r="S104">
+        <f t="shared" ref="S104:S105" si="3">AVERAGE(B105:K105)</f>
+        <v>0.18719493800000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5000</v>
+      </c>
+      <c r="B105">
+        <v>0.18722638999999999</v>
+      </c>
+      <c r="C105">
+        <v>0.18712957</v>
+      </c>
+      <c r="D105">
+        <v>0.18722479</v>
+      </c>
+      <c r="E105">
+        <v>0.18722079</v>
+      </c>
+      <c r="F105">
+        <v>0.18714708999999999</v>
+      </c>
+      <c r="G105">
+        <v>0.18717302</v>
+      </c>
+      <c r="H105">
+        <v>0.18724523000000001</v>
+      </c>
+      <c r="I105">
+        <v>0.18713072</v>
+      </c>
+      <c r="J105">
+        <v>0.18715972</v>
+      </c>
+      <c r="K105">
+        <v>0.18729206000000001</v>
+      </c>
+      <c r="N105">
+        <v>10000</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="3"/>
+        <v>0.187117592</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>10000</v>
+      </c>
+      <c r="B106">
+        <v>0.18712529999999999</v>
+      </c>
+      <c r="C106">
+        <v>0.18712834</v>
+      </c>
+      <c r="D106">
+        <v>0.18706771999999999</v>
+      </c>
+      <c r="E106">
+        <v>0.18707960000000001</v>
+      </c>
+      <c r="F106">
+        <v>0.18714389000000001</v>
+      </c>
+      <c r="G106">
+        <v>0.18713883000000001</v>
+      </c>
+      <c r="H106">
+        <v>0.18708765999999999</v>
+      </c>
+      <c r="I106">
+        <v>0.18708262000000001</v>
+      </c>
+      <c r="J106">
+        <v>0.18713305999999999</v>
+      </c>
+      <c r="K106">
+        <v>0.18718889999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P107" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>0.05</v>
+      </c>
+      <c r="P108">
+        <v>0.1</v>
+      </c>
+      <c r="Q108">
+        <v>0.5</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N109">
+        <v>1000</v>
+      </c>
+      <c r="S109">
+        <f>STDEV(B98:K98)</f>
+        <v>9.6261171871111465E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N110">
+        <v>5000</v>
+      </c>
+      <c r="S110">
+        <f t="shared" ref="S110:S111" si="4">STDEV(B99:K99)</f>
+        <v>7.361445305705413E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N111">
+        <v>10000</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="4"/>
+        <v>5.9305272053448341E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P112" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>0.05</v>
+      </c>
+      <c r="P113">
+        <v>0.1</v>
+      </c>
+      <c r="Q113">
+        <v>0.5</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N114">
+        <v>1000</v>
+      </c>
+      <c r="S114">
+        <f>STDEV(B104:K104)</f>
+        <v>1.373786441433558E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N115">
+        <v>5000</v>
+      </c>
+      <c r="S115">
+        <f t="shared" ref="S115:S116" si="5">STDEV(B105:K105)</f>
+        <v>5.4688744078552396E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N116">
+        <v>10000</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="5"/>
+        <v>3.7551792322958084E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="P118" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>17</v>
+      </c>
+      <c r="R118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>0.05</v>
+      </c>
+      <c r="P119">
+        <v>0.1</v>
+      </c>
+      <c r="Q119">
+        <v>0.5</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <f>AVERAGE(C102:K102)/10000</f>
+        <v>0.75924133333333343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experimental Data/Data Graphs.xlsx
+++ b/Experimental Data/Data Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsolow\Desktop\CS446\CS446\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647EB52D-E3C5-4CB3-879B-02C617DE1C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745AE1ED-C8F5-4716-9C3F-07C0058EF62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1485" windowWidth="21600" windowHeight="11940" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="17550" windowHeight="14370" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t xml:space="preserve">Walkers: </t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Walk 10000</t>
+  </si>
+  <si>
+    <t>sim 20</t>
   </si>
 </sst>
 </file>
@@ -5518,8 +5521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17403C00-ED43-4CA2-8BB5-D37A334092CE}">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T118" sqref="T118"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S114" sqref="S114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6730,21 +6733,6 @@
       <c r="L43">
         <v>6.2057960000000002E-2</v>
       </c>
-      <c r="P43">
-        <v>0.1</v>
-      </c>
-      <c r="Q43">
-        <v>0.5</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="S43">
-        <v>5</v>
-      </c>
-      <c r="T43">
-        <v>10</v>
-      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -7997,6 +7985,10 @@
       <c r="N99">
         <v>1000</v>
       </c>
+      <c r="R99">
+        <f>AVERAGE(B109:K109)</f>
+        <v>0.185639948</v>
+      </c>
       <c r="S99">
         <f>AVERAGE(B98:K98)</f>
         <v>0.187747629</v>
@@ -8039,8 +8031,12 @@
       <c r="N100">
         <v>5000</v>
       </c>
+      <c r="R100">
+        <f t="shared" ref="R100:R101" si="2">AVERAGE(B110:K110)</f>
+        <v>0.18533111399999999</v>
+      </c>
       <c r="S100">
-        <f t="shared" ref="S100:S101" si="2">AVERAGE(B99:K99)</f>
+        <f t="shared" ref="S100:S101" si="3">AVERAGE(B99:K99)</f>
         <v>0.18717667100000002</v>
       </c>
     </row>
@@ -8048,8 +8044,12 @@
       <c r="N101">
         <v>10000</v>
       </c>
+      <c r="R101">
+        <f t="shared" si="2"/>
+        <v>0.185404298</v>
+      </c>
       <c r="S101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18709313599999997</v>
       </c>
     </row>
@@ -8101,6 +8101,10 @@
       <c r="N103">
         <v>1000</v>
       </c>
+      <c r="R103">
+        <f>AVERAGE(B115:K115)</f>
+        <v>0.185454332</v>
+      </c>
       <c r="S103">
         <f>AVERAGE(B104:K104)</f>
         <v>0.18777013000000001</v>
@@ -8143,8 +8147,12 @@
       <c r="N104">
         <v>5000</v>
       </c>
+      <c r="R104">
+        <f t="shared" ref="R104:R105" si="4">AVERAGE(B116:K116)</f>
+        <v>0.18531311700000003</v>
+      </c>
       <c r="S104">
-        <f t="shared" ref="S104:S105" si="3">AVERAGE(B105:K105)</f>
+        <f t="shared" ref="S104:S105" si="5">AVERAGE(B105:K105)</f>
         <v>0.18719493800000001</v>
       </c>
     </row>
@@ -8185,8 +8193,12 @@
       <c r="N105">
         <v>10000</v>
       </c>
+      <c r="R105">
+        <f t="shared" si="4"/>
+        <v>0.18534112100000003</v>
+      </c>
       <c r="S105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.187117592</v>
       </c>
     </row>
@@ -8234,6 +8246,12 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
       <c r="O108">
         <v>0.05</v>
       </c>
@@ -8251,8 +8269,45 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1000</v>
+      </c>
+      <c r="B109">
+        <v>0.18537951</v>
+      </c>
+      <c r="C109">
+        <v>0.18605447</v>
+      </c>
+      <c r="D109">
+        <v>0.18557781000000001</v>
+      </c>
+      <c r="E109">
+        <v>0.18576740999999999</v>
+      </c>
+      <c r="F109">
+        <v>0.18528238</v>
+      </c>
+      <c r="G109">
+        <v>0.18555199</v>
+      </c>
+      <c r="H109">
+        <v>0.18593572999999999</v>
+      </c>
+      <c r="I109">
+        <v>0.18573322</v>
+      </c>
+      <c r="J109">
+        <v>0.18574363999999999</v>
+      </c>
+      <c r="K109">
+        <v>0.18537332000000001</v>
+      </c>
       <c r="N109">
         <v>1000</v>
+      </c>
+      <c r="R109">
+        <f>STDEV(B109:K109)</f>
+        <v>2.5240725380490224E-4</v>
       </c>
       <c r="S109">
         <f>STDEV(B98:K98)</f>
@@ -8260,20 +8315,94 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5000</v>
+      </c>
+      <c r="B110">
+        <v>0.18513360000000001</v>
+      </c>
+      <c r="C110">
+        <v>0.18521993</v>
+      </c>
+      <c r="D110">
+        <v>0.18545180999999999</v>
+      </c>
+      <c r="E110">
+        <v>0.18534249999999999</v>
+      </c>
+      <c r="F110">
+        <v>0.18543958999999999</v>
+      </c>
+      <c r="G110">
+        <v>0.18548617000000001</v>
+      </c>
+      <c r="H110">
+        <v>0.18535651</v>
+      </c>
+      <c r="I110">
+        <v>0.18529303999999999</v>
+      </c>
+      <c r="J110">
+        <v>0.18534970000000001</v>
+      </c>
+      <c r="K110">
+        <v>0.18523829</v>
+      </c>
       <c r="N110">
         <v>5000</v>
       </c>
+      <c r="R110">
+        <f t="shared" ref="R110:R111" si="6">STDEV(B110:K110)</f>
+        <v>1.1202011418589761E-4</v>
+      </c>
       <c r="S110">
-        <f t="shared" ref="S110:S111" si="4">STDEV(B99:K99)</f>
+        <f t="shared" ref="S110:S111" si="7">STDEV(B99:K99)</f>
         <v>7.361445305705413E-5</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>10000</v>
+      </c>
+      <c r="B111">
+        <v>0.18525670999999999</v>
+      </c>
+      <c r="C111">
+        <v>0.18556496</v>
+      </c>
+      <c r="D111">
+        <v>0.18525806</v>
+      </c>
+      <c r="E111">
+        <v>0.18561253999999999</v>
+      </c>
+      <c r="F111">
+        <v>0.18522294</v>
+      </c>
+      <c r="G111">
+        <v>0.18542855</v>
+      </c>
+      <c r="H111">
+        <v>0.18545381</v>
+      </c>
+      <c r="I111">
+        <v>0.18522224000000001</v>
+      </c>
+      <c r="J111">
+        <v>0.18546002</v>
+      </c>
+      <c r="K111">
+        <v>0.18556315000000001</v>
+      </c>
       <c r="N111">
         <v>10000</v>
       </c>
+      <c r="R111">
+        <f t="shared" si="6"/>
+        <v>1.5266488920362566E-4</v>
+      </c>
       <c r="S111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.9305272053448341E-5</v>
       </c>
     </row>
@@ -8285,7 +8414,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113">
+        <v>9896.76</v>
+      </c>
+      <c r="C113">
+        <v>9896.73</v>
+      </c>
+      <c r="D113">
+        <v>9896.8799999999992</v>
+      </c>
+      <c r="E113">
+        <v>9896.8799999999992</v>
+      </c>
+      <c r="F113">
+        <v>9896.89</v>
+      </c>
+      <c r="G113">
+        <v>9896.75</v>
+      </c>
+      <c r="H113">
+        <v>9896.68</v>
+      </c>
+      <c r="I113">
+        <v>9896.98</v>
+      </c>
+      <c r="J113">
+        <v>9896.6200000000008</v>
+      </c>
+      <c r="K113">
+        <v>9896.6</v>
+      </c>
       <c r="O113">
         <v>0.05</v>
       </c>
@@ -8302,34 +8464,150 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
       <c r="N114">
         <v>1000</v>
+      </c>
+      <c r="R114">
+        <f>STDEV(B115:K115)</f>
+        <v>1.8872798272175206E-4</v>
       </c>
       <c r="S114">
         <f>STDEV(B104:K104)</f>
         <v>1.373786441433558E-4</v>
       </c>
     </row>
-    <row r="115" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1000</v>
+      </c>
+      <c r="B115">
+        <v>0.18536428999999999</v>
+      </c>
+      <c r="C115">
+        <v>0.18573507</v>
+      </c>
+      <c r="D115">
+        <v>0.18526929</v>
+      </c>
+      <c r="E115">
+        <v>0.18538899</v>
+      </c>
+      <c r="F115">
+        <v>0.18531909999999999</v>
+      </c>
+      <c r="G115">
+        <v>0.18554957</v>
+      </c>
+      <c r="H115">
+        <v>0.18577969999999999</v>
+      </c>
+      <c r="I115">
+        <v>0.18530931</v>
+      </c>
+      <c r="J115">
+        <v>0.18527684</v>
+      </c>
+      <c r="K115">
+        <v>0.18555115999999999</v>
+      </c>
       <c r="N115">
         <v>5000</v>
       </c>
+      <c r="R115">
+        <f t="shared" ref="R115:R116" si="8">STDEV(B116:K116)</f>
+        <v>1.0231932944898894E-4</v>
+      </c>
       <c r="S115">
-        <f t="shared" ref="S115:S116" si="5">STDEV(B105:K105)</f>
+        <f t="shared" ref="S115:S116" si="9">STDEV(B105:K105)</f>
         <v>5.4688744078552396E-5</v>
       </c>
     </row>
-    <row r="116" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5000</v>
+      </c>
+      <c r="B116">
+        <v>0.18533495999999999</v>
+      </c>
+      <c r="C116">
+        <v>0.18546828000000001</v>
+      </c>
+      <c r="D116">
+        <v>0.18536899000000001</v>
+      </c>
+      <c r="E116">
+        <v>0.18524067999999999</v>
+      </c>
+      <c r="F116">
+        <v>0.18524943999999999</v>
+      </c>
+      <c r="G116">
+        <v>0.18514423999999999</v>
+      </c>
+      <c r="H116">
+        <v>0.18522765999999999</v>
+      </c>
+      <c r="I116">
+        <v>0.18545922000000001</v>
+      </c>
+      <c r="J116">
+        <v>0.18531633</v>
+      </c>
+      <c r="K116">
+        <v>0.18532137000000001</v>
+      </c>
       <c r="N116">
         <v>10000</v>
       </c>
+      <c r="R116">
+        <f t="shared" si="8"/>
+        <v>1.24843413696252E-4</v>
+      </c>
       <c r="S116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.7551792322958084E-5</v>
       </c>
     </row>
-    <row r="118" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>10000</v>
+      </c>
+      <c r="B117">
+        <v>0.18522743999999999</v>
+      </c>
+      <c r="C117">
+        <v>0.18530012000000001</v>
+      </c>
+      <c r="D117">
+        <v>0.18551607000000001</v>
+      </c>
+      <c r="E117">
+        <v>0.18542527</v>
+      </c>
+      <c r="F117">
+        <v>0.18544680999999999</v>
+      </c>
+      <c r="G117">
+        <v>0.18529793</v>
+      </c>
+      <c r="H117">
+        <v>0.18532899999999999</v>
+      </c>
+      <c r="I117">
+        <v>0.18525238999999999</v>
+      </c>
+      <c r="J117">
+        <v>0.18512817000000001</v>
+      </c>
+      <c r="K117">
+        <v>0.18548801000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P118" t="s">
         <v>29</v>
       </c>
@@ -8340,7 +8618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O119">
         <v>0.05</v>
       </c>
@@ -8357,7 +8635,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="14:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <f>AVERAGE(B113:K113)/10000</f>
+        <v>0.98967769999999977</v>
+      </c>
       <c r="S120">
         <f>AVERAGE(C102:K102)/10000</f>
         <v>0.75924133333333343</v>

--- a/Experimental Data/Data Graphs.xlsx
+++ b/Experimental Data/Data Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsolow\Desktop\CS446\CS446\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745AE1ED-C8F5-4716-9C3F-07C0058EF62C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09091E-7682-4E9A-9526-E0E390DA9D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="17550" windowHeight="14370" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t xml:space="preserve">Walkers: </t>
   </si>
@@ -131,6 +131,9 @@
   <si>
     <t>sim 20</t>
   </si>
+  <si>
+    <t>sim 10</t>
+  </si>
 </sst>
 </file>
 
@@ -139,13 +142,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5519,18 +5528,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17403C00-ED43-4CA2-8BB5-D37A334092CE}">
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S114" sqref="S114"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q120" sqref="Q120:S120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="16" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -5538,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -5610,7 +5619,7 @@
         <v>534.78</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -5642,7 +5651,7 @@
         <v>1393.21</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>10000</v>
       </c>
@@ -5674,12 +5683,12 @@
         <v>2644.43</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -5696,12 +5705,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -5718,7 +5727,7 @@
         <v>38.03</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>38.24</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>10000</v>
       </c>
@@ -5752,7 +5761,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="P15" t="s">
         <v>14</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5794,7 +5803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -5852,7 +5861,7 @@
         <v>6.1283425000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>5000</v>
       </c>
@@ -5910,7 +5919,7 @@
         <v>6.1240847000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>10000</v>
       </c>
@@ -5968,7 +5977,7 @@
         <v>6.1240558999999993E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -5976,7 +5985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -5987,7 +5996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>1000</v>
       </c>
@@ -6040,7 +6049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -6078,7 +6087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>10000</v>
       </c>
@@ -6136,7 +6145,7 @@
         <v>6.1301558999999992E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="N26">
         <v>5000</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>6.1245071999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="B27" t="s">
         <v>9</v>
       </c>
@@ -6192,12 +6201,12 @@
         <v>6.1237288999999993E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -6238,7 +6247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>5000</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>10000</v>
       </c>
@@ -6329,7 +6338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="N32">
         <v>1000</v>
       </c>
@@ -6354,7 +6363,7 @@
         <v>2.5732975062273006E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="B33" t="s">
         <v>9</v>
       </c>
@@ -6385,7 +6394,7 @@
         <v>8.3771515312651557E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -6413,7 +6422,7 @@
         <v>1.1480731151707507E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -6448,7 +6457,7 @@
         <v>6.1882649999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>5000</v>
       </c>
@@ -6489,7 +6498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>10000</v>
       </c>
@@ -6542,12 +6551,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="N38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="B39" t="s">
         <v>10</v>
       </c>
@@ -6578,7 +6587,7 @@
         <v>9.8985929976622225E-6</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -6606,7 +6615,7 @@
         <v>8.3508293666628606E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>1000</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>6.7273165361656024E-6</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>5000</v>
       </c>
@@ -6699,7 +6708,7 @@
         <v>6.2056779999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>10000</v>
       </c>
@@ -6734,7 +6743,7 @@
         <v>6.2057960000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="B45" t="s">
         <v>10</v>
       </c>
@@ -6742,12 +6751,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>1000</v>
       </c>
@@ -6782,7 +6791,7 @@
         <v>6.2129660000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>5000</v>
       </c>
@@ -6817,7 +6826,7 @@
         <v>6.205389E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>10000</v>
       </c>
@@ -6852,7 +6861,7 @@
         <v>6.2058729999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="B51" t="s">
         <v>11</v>
       </c>
@@ -6860,12 +6869,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1000</v>
       </c>
@@ -6900,7 +6909,7 @@
         <v>6.2143869999999997E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>5000</v>
       </c>
@@ -6935,7 +6944,7 @@
         <v>6.204581E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>10000</v>
       </c>
@@ -6970,7 +6979,7 @@
         <v>6.2053509999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -6978,12 +6987,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>1000</v>
       </c>
@@ -7018,7 +7027,7 @@
         <v>6.2158039999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>5000</v>
       </c>
@@ -7053,7 +7062,7 @@
         <v>6.2061430000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>10000</v>
       </c>
@@ -7088,7 +7097,7 @@
         <v>6.2068760000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="B63" t="s">
         <v>12</v>
       </c>
@@ -7096,12 +7105,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>1000</v>
       </c>
@@ -7136,7 +7145,7 @@
         <v>6.2142049999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>5000</v>
       </c>
@@ -7171,7 +7180,7 @@
         <v>6.2074360000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>10000</v>
       </c>
@@ -7206,7 +7215,7 @@
         <v>6.2100469999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="B69" t="s">
         <v>12</v>
       </c>
@@ -7214,12 +7223,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>1000</v>
       </c>
@@ -7254,7 +7263,7 @@
         <v>6.2140250000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>5000</v>
       </c>
@@ -7289,7 +7298,7 @@
         <v>6.2093009999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>10000</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>6.207025E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -7363,7 +7372,7 @@
         <v>0.99995900000000015</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="C76">
         <v>4999.8100000000004</v>
       </c>
@@ -7399,7 +7408,7 @@
         <v>0.9999652</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="C77">
         <v>9999.65</v>
       </c>
@@ -7435,7 +7444,7 @@
         <v>0.99996430000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -7474,7 +7483,7 @@
         <v>0.99909700000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="C80">
         <v>4995.62</v>
       </c>
@@ -7510,7 +7519,7 @@
         <v>0.99912179999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="C81">
         <v>9991.31</v>
       </c>
@@ -7546,7 +7555,7 @@
         <v>0.99913019999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -7585,7 +7594,7 @@
         <v>0.99651899999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="C84">
         <v>4983</v>
       </c>
@@ -7621,7 +7630,7 @@
         <v>0.9965552000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="C85">
         <v>9965.82</v>
       </c>
@@ -7657,7 +7666,7 @@
         <v>0.99655629999999984</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -7696,7 +7705,7 @@
         <v>0.92063499999999987</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="C88">
         <v>4603.87</v>
       </c>
@@ -7732,7 +7741,7 @@
         <v>0.92085620000000012</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="C89">
         <v>9208.76</v>
       </c>
@@ -7768,7 +7777,7 @@
         <v>0.92084990000000011</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -7807,7 +7816,7 @@
         <v>0.71600700000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="C92">
         <v>3581.45</v>
       </c>
@@ -7843,7 +7852,7 @@
         <v>0.71634419999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="C93">
         <v>7163.08</v>
       </c>
@@ -7879,12 +7888,12 @@
         <v>0.7163700999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="B96" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -7898,7 +7907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98">
         <v>1000</v>
       </c>
@@ -7948,7 +7957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>5000</v>
       </c>
@@ -7984,6 +7993,14 @@
       </c>
       <c r="N99">
         <v>1000</v>
+      </c>
+      <c r="P99">
+        <f>AVERAGE(B131:K131)</f>
+        <v>0.18556719699999999</v>
+      </c>
+      <c r="Q99">
+        <f>AVERAGE(B120:K120)</f>
+        <v>0.18570252399999998</v>
       </c>
       <c r="R99">
         <f>AVERAGE(B109:K109)</f>
@@ -7994,7 +8011,7 @@
         <v>0.187747629</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100">
         <v>10000</v>
       </c>
@@ -8031,29 +8048,45 @@
       <c r="N100">
         <v>5000</v>
       </c>
+      <c r="P100">
+        <f>AVERAGE(B137:K137)</f>
+        <v>0.185641904</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" ref="Q100:Q101" si="2">AVERAGE(B121:K121)</f>
+        <v>0.18553511500000003</v>
+      </c>
       <c r="R100">
-        <f t="shared" ref="R100:R101" si="2">AVERAGE(B110:K110)</f>
+        <f t="shared" ref="R100:R101" si="3">AVERAGE(B110:K110)</f>
         <v>0.18533111399999999</v>
       </c>
       <c r="S100">
-        <f t="shared" ref="S100:S101" si="3">AVERAGE(B99:K99)</f>
+        <f t="shared" ref="S100:S101" si="4">AVERAGE(B99:K99)</f>
         <v>0.18717667100000002</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="N101">
         <v>10000</v>
       </c>
+      <c r="P101">
+        <f t="shared" ref="P100:P101" si="5">AVERAGE(B133:K133)</f>
+        <v>0.18646843099999999</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>0.18565925799999999</v>
+      </c>
       <c r="R101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.185404298</v>
       </c>
       <c r="S101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18709313599999997</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -8094,12 +8127,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="B103" t="s">
         <v>27</v>
       </c>
       <c r="N103">
         <v>1000</v>
+      </c>
+      <c r="P103">
+        <f>AVERAGE(B137:K137)</f>
+        <v>0.185641904</v>
+      </c>
+      <c r="Q103">
+        <f>AVERAGE(B126:K126)</f>
+        <v>0.185746141</v>
       </c>
       <c r="R103">
         <f>AVERAGE(B115:K115)</f>
@@ -8110,7 +8151,7 @@
         <v>0.18777013000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104">
         <v>1000</v>
       </c>
@@ -8147,16 +8188,24 @@
       <c r="N104">
         <v>5000</v>
       </c>
+      <c r="P104">
+        <f t="shared" ref="P104:P105" si="6">AVERAGE(B138:K138)</f>
+        <v>0.185742507</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" ref="Q104:Q105" si="7">AVERAGE(B127:K127)</f>
+        <v>0.18548324099999999</v>
+      </c>
       <c r="R104">
-        <f t="shared" ref="R104:R105" si="4">AVERAGE(B116:K116)</f>
+        <f t="shared" ref="R104:R105" si="8">AVERAGE(B116:K116)</f>
         <v>0.18531311700000003</v>
       </c>
       <c r="S104">
-        <f t="shared" ref="S104:S105" si="5">AVERAGE(B105:K105)</f>
+        <f t="shared" ref="S104:S105" si="9">AVERAGE(B105:K105)</f>
         <v>0.18719493800000001</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105">
         <v>5000</v>
       </c>
@@ -8193,16 +8242,24 @@
       <c r="N105">
         <v>10000</v>
       </c>
+      <c r="P105" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="7"/>
+        <v>0.185658667</v>
+      </c>
       <c r="R105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.18534112100000003</v>
       </c>
       <c r="S105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.187117592</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106">
         <v>10000</v>
       </c>
@@ -8237,7 +8294,7 @@
         <v>0.18718889999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="P107" t="s">
         <v>18</v>
       </c>
@@ -8245,7 +8302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -8268,7 +8325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109">
         <v>1000</v>
       </c>
@@ -8304,6 +8361,14 @@
       </c>
       <c r="N109">
         <v>1000</v>
+      </c>
+      <c r="P109">
+        <f>STDEV(B131:K131)</f>
+        <v>2.2338634609871371E-4</v>
+      </c>
+      <c r="Q109">
+        <f>STDEV(B120:K120)</f>
+        <v>2.4084317392583028E-4</v>
       </c>
       <c r="R109">
         <f>STDEV(B109:K109)</f>
@@ -8314,7 +8379,7 @@
         <v>9.6261171871111465E-5</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110">
         <v>5000</v>
       </c>
@@ -8351,16 +8416,24 @@
       <c r="N110">
         <v>5000</v>
       </c>
+      <c r="P110">
+        <f t="shared" ref="P110:P111" si="10">STDEV(B132:K132)</f>
+        <v>2.3192759902128425E-4</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" ref="Q110:Q111" si="11">STDEV(B121:K121)</f>
+        <v>9.6110659167216673E-5</v>
+      </c>
       <c r="R110">
-        <f t="shared" ref="R110:R111" si="6">STDEV(B110:K110)</f>
+        <f t="shared" ref="R110:R111" si="12">STDEV(B110:K110)</f>
         <v>1.1202011418589761E-4</v>
       </c>
       <c r="S110">
-        <f t="shared" ref="S110:S111" si="7">STDEV(B99:K99)</f>
+        <f t="shared" ref="S110:S111" si="13">STDEV(B99:K99)</f>
         <v>7.361445305705413E-5</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111">
         <v>10000</v>
       </c>
@@ -8397,16 +8470,24 @@
       <c r="N111">
         <v>10000</v>
       </c>
+      <c r="P111">
+        <f t="shared" si="10"/>
+        <v>1.5719316294504431E-4</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="11"/>
+        <v>1.7633902705363011E-4</v>
+      </c>
       <c r="R111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1.5266488920362566E-4</v>
       </c>
       <c r="S111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.9305272053448341E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="P112" t="s">
         <v>18</v>
       </c>
@@ -8414,7 +8495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -8464,12 +8545,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19">
       <c r="B114" t="s">
         <v>31</v>
       </c>
       <c r="N114">
         <v>1000</v>
+      </c>
+      <c r="P114">
+        <f>STDEV(B137:K137)</f>
+        <v>2.9079375387606836E-4</v>
+      </c>
+      <c r="Q114">
+        <f>STDEV(B126:K126)</f>
+        <v>1.9145482301170761E-4</v>
       </c>
       <c r="R114">
         <f>STDEV(B115:K115)</f>
@@ -8480,7 +8569,7 @@
         <v>1.373786441433558E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19">
       <c r="A115">
         <v>1000</v>
       </c>
@@ -8517,16 +8606,24 @@
       <c r="N115">
         <v>5000</v>
       </c>
+      <c r="P115">
+        <f t="shared" ref="P115:P116" si="14">STDEV(B138:K138)</f>
+        <v>1.22093018004942E-4</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" ref="Q115:Q116" si="15">STDEV(B127:K127)</f>
+        <v>2.0845683253907534E-4</v>
+      </c>
       <c r="R115">
-        <f t="shared" ref="R115:R116" si="8">STDEV(B116:K116)</f>
+        <f t="shared" ref="R115:R116" si="16">STDEV(B116:K116)</f>
         <v>1.0231932944898894E-4</v>
       </c>
       <c r="S115">
-        <f t="shared" ref="S115:S116" si="9">STDEV(B105:K105)</f>
+        <f t="shared" ref="S115:S116" si="17">STDEV(B105:K105)</f>
         <v>5.4688744078552396E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19">
       <c r="A116">
         <v>5000</v>
       </c>
@@ -8563,16 +8660,24 @@
       <c r="N116">
         <v>10000</v>
       </c>
+      <c r="P116" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="15"/>
+        <v>9.5912528094900328E-5</v>
+      </c>
       <c r="R116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.24843413696252E-4</v>
       </c>
       <c r="S116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>3.7551792322958084E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19">
       <c r="A117">
         <v>10000</v>
       </c>
@@ -8607,7 +8712,7 @@
         <v>0.18548801000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19">
       <c r="P118" t="s">
         <v>29</v>
       </c>
@@ -8618,7 +8723,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
       <c r="O119">
         <v>0.05</v>
       </c>
@@ -8635,7 +8746,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19">
+      <c r="A120">
+        <v>1000</v>
+      </c>
+      <c r="B120">
+        <v>0.18563767</v>
+      </c>
+      <c r="C120">
+        <v>0.18536944</v>
+      </c>
+      <c r="D120">
+        <v>0.18535476000000001</v>
+      </c>
+      <c r="E120">
+        <v>0.18583002000000001</v>
+      </c>
+      <c r="F120">
+        <v>0.18591926</v>
+      </c>
+      <c r="G120">
+        <v>0.18570164</v>
+      </c>
+      <c r="H120">
+        <v>0.18615253000000001</v>
+      </c>
+      <c r="I120">
+        <v>0.18575227999999999</v>
+      </c>
+      <c r="J120">
+        <v>0.18557319</v>
+      </c>
+      <c r="K120">
+        <v>0.18573445</v>
+      </c>
+      <c r="Q120">
+        <f>AVERAGE(B124:K124)/10000</f>
+        <v>0.99739460000000002</v>
+      </c>
       <c r="R120">
         <f>AVERAGE(B113:K113)/10000</f>
         <v>0.98967769999999977</v>
@@ -8643,6 +8791,419 @@
       <c r="S120">
         <f>AVERAGE(C102:K102)/10000</f>
         <v>0.75924133333333343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121">
+        <v>5000</v>
+      </c>
+      <c r="B121">
+        <v>0.18562522000000001</v>
+      </c>
+      <c r="C121">
+        <v>0.18560694</v>
+      </c>
+      <c r="D121">
+        <v>0.18538869999999999</v>
+      </c>
+      <c r="E121">
+        <v>0.18552637</v>
+      </c>
+      <c r="F121">
+        <v>0.18556792</v>
+      </c>
+      <c r="G121">
+        <v>0.18561830000000001</v>
+      </c>
+      <c r="H121">
+        <v>0.18535595999999999</v>
+      </c>
+      <c r="I121">
+        <v>0.18560926</v>
+      </c>
+      <c r="J121">
+        <v>0.18556227</v>
+      </c>
+      <c r="K121">
+        <v>0.18549020999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122">
+        <v>10000</v>
+      </c>
+      <c r="B122">
+        <v>0.18574314</v>
+      </c>
+      <c r="C122">
+        <v>0.18555052</v>
+      </c>
+      <c r="D122">
+        <v>0.18567622</v>
+      </c>
+      <c r="E122">
+        <v>0.18606987999999999</v>
+      </c>
+      <c r="F122">
+        <v>0.18567101999999999</v>
+      </c>
+      <c r="G122">
+        <v>0.18554973</v>
+      </c>
+      <c r="H122">
+        <v>0.18553082000000001</v>
+      </c>
+      <c r="I122">
+        <v>0.18572050000000001</v>
+      </c>
+      <c r="J122">
+        <v>0.18566578</v>
+      </c>
+      <c r="K122">
+        <v>0.18541497000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124">
+        <v>9974.08</v>
+      </c>
+      <c r="C124">
+        <v>9974.0300000000007</v>
+      </c>
+      <c r="D124">
+        <v>9973.9699999999993</v>
+      </c>
+      <c r="E124">
+        <v>9973.7800000000007</v>
+      </c>
+      <c r="F124">
+        <v>9973.92</v>
+      </c>
+      <c r="G124">
+        <v>9974.0499999999993</v>
+      </c>
+      <c r="H124">
+        <v>9973.9500000000007</v>
+      </c>
+      <c r="I124">
+        <v>9973.92</v>
+      </c>
+      <c r="J124">
+        <v>9973.94</v>
+      </c>
+      <c r="K124">
+        <v>9973.82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126">
+        <v>1000</v>
+      </c>
+      <c r="B126">
+        <v>0.18583341</v>
+      </c>
+      <c r="C126">
+        <v>0.18557174000000001</v>
+      </c>
+      <c r="D126">
+        <v>0.18539154999999999</v>
+      </c>
+      <c r="E126">
+        <v>0.18584133999999999</v>
+      </c>
+      <c r="F126">
+        <v>0.18556701</v>
+      </c>
+      <c r="G126">
+        <v>0.18568376</v>
+      </c>
+      <c r="H126">
+        <v>0.18583643</v>
+      </c>
+      <c r="I126">
+        <v>0.18596692000000001</v>
+      </c>
+      <c r="J126">
+        <v>0.18577097000000001</v>
+      </c>
+      <c r="K126">
+        <v>0.18599827999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127">
+        <v>5000</v>
+      </c>
+      <c r="B127">
+        <v>0.18547706999999999</v>
+      </c>
+      <c r="C127">
+        <v>0.18559466999999999</v>
+      </c>
+      <c r="D127">
+        <v>0.18571102</v>
+      </c>
+      <c r="E127">
+        <v>0.18544658</v>
+      </c>
+      <c r="F127">
+        <v>0.18530464999999999</v>
+      </c>
+      <c r="G127">
+        <v>0.18565449000000001</v>
+      </c>
+      <c r="H127">
+        <v>0.18525638</v>
+      </c>
+      <c r="I127">
+        <v>0.18555150000000001</v>
+      </c>
+      <c r="J127">
+        <v>0.18510214999999999</v>
+      </c>
+      <c r="K127">
+        <v>0.18573390000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128">
+        <v>10000</v>
+      </c>
+      <c r="B128">
+        <v>0.18574789999999999</v>
+      </c>
+      <c r="C128">
+        <v>0.18559384000000001</v>
+      </c>
+      <c r="D128">
+        <v>0.18562110000000001</v>
+      </c>
+      <c r="E128">
+        <v>0.18572104</v>
+      </c>
+      <c r="F128">
+        <v>0.18576361999999999</v>
+      </c>
+      <c r="G128">
+        <v>0.18546762999999999</v>
+      </c>
+      <c r="H128">
+        <v>0.18569530000000001</v>
+      </c>
+      <c r="I128">
+        <v>0.18567226000000001</v>
+      </c>
+      <c r="J128">
+        <v>0.18556199000000001</v>
+      </c>
+      <c r="K128">
+        <v>0.18574199</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>1000</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.18544066000000001</v>
+      </c>
+      <c r="C131">
+        <v>0.18551561</v>
+      </c>
+      <c r="D131">
+        <v>0.18557534000000001</v>
+      </c>
+      <c r="E131">
+        <v>0.18532451</v>
+      </c>
+      <c r="F131">
+        <v>0.18565698999999999</v>
+      </c>
+      <c r="G131">
+        <v>0.18585181000000001</v>
+      </c>
+      <c r="H131">
+        <v>0.18553985000000001</v>
+      </c>
+      <c r="I131">
+        <v>0.18598144</v>
+      </c>
+      <c r="J131">
+        <v>0.18554987000000001</v>
+      </c>
+      <c r="K131">
+        <v>0.18523588999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>5000</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.18614866999999999</v>
+      </c>
+      <c r="C132">
+        <v>0.18583142999999999</v>
+      </c>
+      <c r="D132">
+        <v>0.18621225</v>
+      </c>
+      <c r="E132">
+        <v>0.18574396000000001</v>
+      </c>
+      <c r="F132">
+        <v>0.18595094000000001</v>
+      </c>
+      <c r="G132">
+        <v>0.18560832999999999</v>
+      </c>
+      <c r="H132">
+        <v>0.18577974999999999</v>
+      </c>
+      <c r="I132">
+        <v>0.18563574999999999</v>
+      </c>
+      <c r="J132">
+        <v>0.18625243999999999</v>
+      </c>
+      <c r="K132">
+        <v>0.18590437000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>10000</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.18661042999999999</v>
+      </c>
+      <c r="C133">
+        <v>0.18623782</v>
+      </c>
+      <c r="D133">
+        <v>0.18663494</v>
+      </c>
+      <c r="E133">
+        <v>0.18661899000000001</v>
+      </c>
+      <c r="F133">
+        <v>0.18650465999999999</v>
+      </c>
+      <c r="G133">
+        <v>0.18651011000000001</v>
+      </c>
+      <c r="H133">
+        <v>0.18643846</v>
+      </c>
+      <c r="I133">
+        <v>0.18620391999999999</v>
+      </c>
+      <c r="J133">
+        <v>0.18657354000000001</v>
+      </c>
+      <c r="K133">
+        <v>0.18635144000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>1000</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.18578401</v>
+      </c>
+      <c r="C137">
+        <v>0.18598143</v>
+      </c>
+      <c r="D137">
+        <v>0.18520275999999999</v>
+      </c>
+      <c r="E137">
+        <v>0.18590738000000001</v>
+      </c>
+      <c r="F137">
+        <v>0.18541352</v>
+      </c>
+      <c r="G137">
+        <v>0.18565915</v>
+      </c>
+      <c r="H137">
+        <v>0.18587691000000001</v>
+      </c>
+      <c r="I137">
+        <v>0.18516036</v>
+      </c>
+      <c r="J137">
+        <v>0.18579250999999999</v>
+      </c>
+      <c r="K137">
+        <v>0.18564101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>5000</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.18570075</v>
+      </c>
+      <c r="C138">
+        <v>0.18575560999999999</v>
+      </c>
+      <c r="D138">
+        <v>0.18584316000000001</v>
+      </c>
+      <c r="E138">
+        <v>0.18556881</v>
+      </c>
+      <c r="F138">
+        <v>0.18570603999999999</v>
+      </c>
+      <c r="G138">
+        <v>0.18571302000000001</v>
+      </c>
+      <c r="H138">
+        <v>0.18559210000000001</v>
+      </c>
+      <c r="I138">
+        <v>0.18576783999999999</v>
+      </c>
+      <c r="J138">
+        <v>0.18578016</v>
+      </c>
+      <c r="K138">
+        <v>0.18599758</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Data/Data Graphs.xlsx
+++ b/Experimental Data/Data Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wsolow\Desktop\CS446\CS446\Experimental Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09091E-7682-4E9A-9526-E0E390DA9D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A922436-FF9F-4D74-BD1E-98F8EC202A0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
+    <workbookView xWindow="10455" yWindow="180" windowWidth="17010" windowHeight="14715" xr2:uid="{0E8585C4-C860-42BC-83FC-8C17E514B67F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t xml:space="preserve">Walkers: </t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>sim 10</t>
+  </si>
+  <si>
+    <t> 9998.92473440135</t>
   </si>
 </sst>
 </file>
@@ -5530,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17403C00-ED43-4CA2-8BB5-D37A334092CE}">
   <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q120" sqref="Q120:S120"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P111" sqref="P111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8070,7 +8073,7 @@
         <v>10000</v>
       </c>
       <c r="P101">
-        <f t="shared" ref="P100:P101" si="5">AVERAGE(B133:K133)</f>
+        <f t="shared" ref="P101" si="5">AVERAGE(B133:K133)</f>
         <v>0.18646843099999999</v>
       </c>
       <c r="Q101">
@@ -8242,9 +8245,9 @@
       <c r="N105">
         <v>10000</v>
       </c>
-      <c r="P105" t="e">
+      <c r="P105">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.18647248653671319</v>
       </c>
       <c r="Q105">
         <f t="shared" si="7"/>
@@ -8660,9 +8663,9 @@
       <c r="N116">
         <v>10000</v>
       </c>
-      <c r="P116" t="e">
+      <c r="P116">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.5521926008014625E-4</v>
       </c>
       <c r="Q116">
         <f t="shared" si="15"/>
@@ -8780,6 +8783,10 @@
       <c r="K120">
         <v>0.18573445</v>
       </c>
+      <c r="P120">
+        <f>AVERAGE(B135:K135)/10000</f>
+        <v>0.99988682579920152</v>
+      </c>
       <c r="Q120">
         <f>AVERAGE(B124:K124)/10000</f>
         <v>0.99739460000000002</v>
@@ -9125,6 +9132,36 @@
       <c r="A135" t="s">
         <v>25</v>
       </c>
+      <c r="B135" s="2">
+        <v>9998.9351537999992</v>
+      </c>
+      <c r="C135" s="2">
+        <v>9998.94281618887</v>
+      </c>
+      <c r="D135" s="2">
+        <v>9998.98082209106</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="2">
+        <v>9998.9061298482193</v>
+      </c>
+      <c r="G135" s="2">
+        <v>9998.9699999999993</v>
+      </c>
+      <c r="H135" s="2">
+        <v>9998.9279999999999</v>
+      </c>
+      <c r="I135" s="2">
+        <v>9998.9226999999992</v>
+      </c>
+      <c r="J135" s="2">
+        <v>9998.9297999999999</v>
+      </c>
+      <c r="K135" s="2">
+        <v>9998.2988999999998</v>
+      </c>
     </row>
     <row r="136" spans="1:11">
       <c r="B136" t="s">
@@ -9204,6 +9241,36 @@
     <row r="139" spans="1:11">
       <c r="A139">
         <v>10000</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.18623481</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.18653843065461301</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.18657723046890801</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0.18672378837418099</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0.18664059282942999</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.18646527809999999</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.18630113800000001</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0.18649255470000001</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0.18632554524</v>
+      </c>
+      <c r="K139" s="2">
+        <v>0.186425497</v>
       </c>
     </row>
   </sheetData>
